--- a/课程目录/大学物理实验/实验06-用牛顿环法测球面的曲率半径/实验报告_4/用牛顿环法测球面的曲率半径【数据报表】（UE-DND）.xlsx
+++ b/课程目录/大学物理实验/实验06-用牛顿环法测球面的曲率半径/实验报告_4/用牛顿环法测球面的曲率半径【数据报表】（UE-DND）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CQUT\CQUT-Course-Guide-Sharing-Scheme\课程目录\大学物理实验\实验06-用牛顿环法测球面的曲率半径\实验报告_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D725C3-8C0A-49D7-B979-9D106E9E5D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0DF73-3356-4F01-990A-4CEF88B3362A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{C345EEB8-572F-475A-B712-27F5915848A7}"/>
   </bookViews>
@@ -582,8 +582,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -768,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,11 +778,38 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -793,38 +820,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDECD3CE-BB47-4094-BB2B-6A39A21F0E1F}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -1175,327 +1181,334 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8">
-        <v>855.1</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.02</v>
-      </c>
+    <row r="3" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4">
+        <v>855.1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F5" s="13">
         <v>5.8929999999999996E-4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I5" s="13">
         <v>2.57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="J6" s="16" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="14">
-        <f>_xlfn.STDEV.S(C10:H10)/SQRT(6)*I4</f>
+      <c r="K7" s="7">
+        <f>_xlfn.STDEV.S(C11:H11)/SQRT(6)*I5</f>
         <v>1.8373453071711761E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8">
-        <v>3</v>
-      </c>
-      <c r="F7" s="8">
-        <v>4</v>
-      </c>
-      <c r="G7" s="8">
-        <v>5</v>
-      </c>
-      <c r="H7" s="8">
-        <v>6</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="14">
-        <f>_xlfn.STDEV.S(C14:H14)/SQRT(6)*I4</f>
-        <v>4.2833333333336986E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="9">
-        <v>38.674999999999997</v>
-      </c>
-      <c r="D8" s="9">
-        <v>38.679000000000002</v>
-      </c>
-      <c r="E8" s="9">
-        <v>38.673999999999999</v>
-      </c>
-      <c r="F8" s="9">
-        <v>38.674999999999997</v>
-      </c>
-      <c r="G8" s="9">
-        <v>38.677</v>
-      </c>
-      <c r="H8" s="9">
-        <v>38.674999999999997</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="14">
-        <f>SQRT(K6^2+I3^2)</f>
-        <v>2.0084218625024575E-2</v>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7">
+        <f>_xlfn.STDEV.S(C15:H15)/SQRT(6)*I5</f>
+        <v>4.2833333333336986E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9">
-        <v>33.549999999999997</v>
-      </c>
-      <c r="D9" s="9">
-        <v>33.552999999999997</v>
-      </c>
-      <c r="E9" s="9">
-        <v>33.548000000000002</v>
-      </c>
-      <c r="F9" s="9">
-        <v>33.551000000000002</v>
-      </c>
-      <c r="G9" s="9">
-        <v>33.548999999999999</v>
-      </c>
-      <c r="H9" s="9">
-        <v>33.552</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="14">
-        <f>SQRT(K7^2+I3^2)</f>
-        <v>2.0453531344108957E-2</v>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>38.674999999999997</v>
+      </c>
+      <c r="D9" s="5">
+        <v>38.679000000000002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>38.673999999999999</v>
+      </c>
+      <c r="F9" s="5">
+        <v>38.674999999999997</v>
+      </c>
+      <c r="G9" s="5">
+        <v>38.677</v>
+      </c>
+      <c r="H9" s="5">
+        <v>38.674999999999997</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="7">
+        <f>SQRT(K7^2+I4^2)</f>
+        <v>2.0084218625024575E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10">
-        <f>ABS(C8-C9)</f>
-        <v>5.125</v>
-      </c>
-      <c r="D10" s="10">
-        <f>ABS(D8-D9)</f>
-        <v>5.1260000000000048</v>
-      </c>
-      <c r="E10" s="10">
-        <f>ABS(E8-E9)</f>
-        <v>5.1259999999999977</v>
-      </c>
-      <c r="F10" s="10">
-        <f>ABS(F8-F9)</f>
-        <v>5.1239999999999952</v>
-      </c>
-      <c r="G10" s="10">
-        <f>ABS(G8-G9)</f>
-        <v>5.1280000000000001</v>
-      </c>
-      <c r="H10" s="10">
-        <f>ABS(H8-H9)</f>
-        <v>5.1229999999999976</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="15">
-        <f>SQRT(((2*C11/(40*F4)*K8)^2+((2*C15/(40*F4)*K9)^2)))</f>
-        <v>9.5867387445129033</v>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="D10" s="5">
+        <v>33.552999999999997</v>
+      </c>
+      <c r="E10" s="5">
+        <v>33.548000000000002</v>
+      </c>
+      <c r="F10" s="5">
+        <v>33.551000000000002</v>
+      </c>
+      <c r="G10" s="5">
+        <v>33.548999999999999</v>
+      </c>
+      <c r="H10" s="5">
+        <v>33.552</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="7">
+        <f>SQRT(K8^2+I4^2)</f>
+        <v>2.0453531344108957E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="11">
-        <f>AVERAGE(C10:H10)</f>
-        <v>5.1253333333333329</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="J11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="17">
-        <f>(C11^2-C15^2)/(40*F4)</f>
-        <v>894.33549691724625</v>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" ref="C11:H11" si="0">ABS(C9-C10)</f>
+        <v>5.125</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>5.1260000000000048</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>5.1259999999999977</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>5.1239999999999952</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>5.1280000000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>5.1229999999999976</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="8">
+        <f>SQRT(((2*C12/(40*F5)*K9)^2+((2*C16/(40*F5)*K10)^2)))</f>
+        <v>9.5867387445129033</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9">
-        <v>37.265999999999998</v>
-      </c>
-      <c r="D12" s="9">
-        <v>37.271000000000001</v>
-      </c>
-      <c r="E12" s="9">
-        <v>37.270000000000003</v>
-      </c>
-      <c r="F12" s="9">
-        <v>37.270000000000003</v>
-      </c>
-      <c r="G12" s="9">
-        <v>37.271999999999998</v>
-      </c>
-      <c r="H12" s="9">
-        <v>37.268000000000001</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>25</v>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="17">
+        <f>AVERAGE(C11:H11)</f>
+        <v>5.1253333333333329</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="J12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="10">
+        <f>(C12^2-C16^2)/(40*F5)</f>
+        <v>894.33549691724625</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9">
-        <v>34.994999999999997</v>
-      </c>
-      <c r="D13" s="9">
-        <v>34.993000000000002</v>
-      </c>
-      <c r="E13" s="9">
-        <v>34.991</v>
-      </c>
-      <c r="F13" s="9">
-        <v>34.988999999999997</v>
-      </c>
-      <c r="G13" s="9">
-        <v>34.99</v>
-      </c>
-      <c r="H13" s="9">
-        <v>34.993000000000002</v>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>37.265999999999998</v>
+      </c>
+      <c r="D13" s="5">
+        <v>37.271000000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="F13" s="5">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="G13" s="5">
+        <v>37.271999999999998</v>
+      </c>
+      <c r="H13" s="5">
+        <v>37.268000000000001</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="10">
-        <f>ABS(C12-C13)</f>
-        <v>2.2710000000000008</v>
-      </c>
-      <c r="D14" s="10">
-        <f>ABS(D12-D13)</f>
-        <v>2.2779999999999987</v>
-      </c>
-      <c r="E14" s="10">
-        <f>ABS(E12-E13)</f>
-        <v>2.2790000000000035</v>
-      </c>
-      <c r="F14" s="10">
-        <f>ABS(F12-F13)</f>
-        <v>2.2810000000000059</v>
-      </c>
-      <c r="G14" s="10">
-        <f>ABS(G12-G13)</f>
-        <v>2.2819999999999965</v>
-      </c>
-      <c r="H14" s="10">
-        <f>ABS(H12-H13)</f>
-        <v>2.2749999999999986</v>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5">
+        <v>34.994999999999997</v>
+      </c>
+      <c r="D14" s="5">
+        <v>34.993000000000002</v>
+      </c>
+      <c r="E14" s="5">
+        <v>34.991</v>
+      </c>
+      <c r="F14" s="5">
+        <v>34.988999999999997</v>
+      </c>
+      <c r="G14" s="5">
+        <v>34.99</v>
+      </c>
+      <c r="H14" s="5">
+        <v>34.993000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" ref="C15:H15" si="1">ABS(C13-C14)</f>
+        <v>2.2710000000000008</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2779999999999987</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2790000000000035</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2810000000000059</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2819999999999965</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2749999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="11">
-        <f>AVERAGE(C14:H14)</f>
+      <c r="C16" s="17">
+        <f>AVERAGE(C15:H15)</f>
         <v>2.2776666666666672</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1516,9 +1529,9 @@
     <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
   </mergeCells>
